--- a/startup/xlsx/grid.xlsx
+++ b/startup/xlsx/grid.xlsx
@@ -83,6 +83,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S6" authorId="0">
       <text>
         <r>
@@ -97,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U6" authorId="0">
+    <comment ref="T6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -126,20 +140,6 @@
       </text>
     </comment>
     <comment ref="X6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -216,6 +216,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S6" authorId="0">
       <text>
         <r>
@@ -230,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U6" authorId="0">
+    <comment ref="T6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -259,20 +273,6 @@
       </text>
     </comment>
     <comment ref="X6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -349,6 +349,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S6" authorId="0">
       <text>
         <r>
@@ -363,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U6" authorId="0">
+    <comment ref="T6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -392,20 +406,6 @@
       </text>
     </comment>
     <comment ref="X6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -482,6 +482,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S6" authorId="0">
       <text>
         <r>
@@ -496,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U6" authorId="0">
+    <comment ref="T6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -525,20 +539,6 @@
       </text>
     </comment>
     <comment ref="X6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -615,6 +615,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S6" authorId="0">
       <text>
         <r>
@@ -629,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U6" authorId="0">
+    <comment ref="T6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -671,26 +685,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="76">
   <si>
     <t xml:space="preserve">Grid</t>
   </si>
@@ -779,22 +779,13 @@
     <t xml:space="preserve">Detector X</t>
   </si>
   <si>
-    <t xml:space="preserve">Motor #1</t>
+    <t xml:space="preserve">xafs_x</t>
   </si>
   <si>
-    <t xml:space="preserve">Motor 1 absolute position (mm)</t>
+    <t xml:space="preserve">xafs_y</t>
   </si>
   <si>
-    <t xml:space="preserve">Motor #2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motor 2 absolute position (mm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motor #3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motor 3 absolute position</t>
+    <t xml:space="preserve">none</t>
   </si>
   <si>
     <t xml:space="preserve">Slit width (absolute width, mm)</t>
@@ -866,15 +857,6 @@
     <t xml:space="preserve">0.5  0.5  0.5  0.5</t>
   </si>
   <si>
-    <t xml:space="preserve">xafs_x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xafs_y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xafs_pitch</t>
-  </si>
-  <si>
     <t xml:space="preserve">Change edge at start?</t>
   </si>
   <si>
@@ -933,6 +915,9 @@
   </si>
   <si>
     <t xml:space="preserve">added resonant reflectivity spreadsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select grid motors by setting position column headers</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1000,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1025,7 +1010,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFF5CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1043,7 +1028,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFF5CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1054,12 +1039,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCFF66"/>
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1271,28 +1262,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1319,7 +1288,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1428,6 +1397,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1440,83 +1413,79 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1568,16 +1537,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1617,7 +1578,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFF5CE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1666,14 +1627,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>606600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1081080</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:colOff>643680</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1682,8 +1643,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200400" y="7013160"/>
-          <a:ext cx="6933240" cy="1848600"/>
+          <a:off x="3201120" y="7013160"/>
+          <a:ext cx="6933240" cy="1848240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1892,7 +1853,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Do not add columns before column AI</a:t>
+            <a:t>7. Do not add columns before column AH</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1921,14 +1882,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>711720</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1186200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:colOff>714600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1937,8 +1898,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3305520" y="7160760"/>
-          <a:ext cx="6933240" cy="1848600"/>
+          <a:off x="3306240" y="7160760"/>
+          <a:ext cx="6933240" cy="1848240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2177,13 +2138,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>711720</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1186200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:colOff>714600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2192,8 +2153,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3305520" y="7020000"/>
-          <a:ext cx="6933240" cy="1848600"/>
+          <a:off x="3306240" y="7020000"/>
+          <a:ext cx="6933240" cy="1848240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2432,13 +2393,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>711720</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1186200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:colOff>748800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2447,8 +2408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3305520" y="7020000"/>
-          <a:ext cx="6933240" cy="1848600"/>
+          <a:off x="3306240" y="7020000"/>
+          <a:ext cx="6933240" cy="1848240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2687,13 +2648,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>711720</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1186200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:colOff>714600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2702,8 +2663,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3305520" y="7020000"/>
-          <a:ext cx="6933240" cy="1848600"/>
+          <a:off x="3306240" y="7020000"/>
+          <a:ext cx="6933240" cy="1848240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2947,31 +2908,29 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="12.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="26" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="34" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="25" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3008,12 +2967,11 @@
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 16</v>
+        <v>Version: 17</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -3044,13 +3002,12 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
       <c r="AC2" s="0"/>
-      <c r="AD2" s="0"/>
-      <c r="AE2" s="10"/>
+      <c r="AD2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
@@ -3070,13 +3027,12 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
       <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="10"/>
+      <c r="AD3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
@@ -3114,22 +3070,21 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16" t="s">
+      <c r="Y4" s="16" t="s">
         <v>13</v>
       </c>
+      <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="17" t="s">
+      <c r="AE4" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-    </row>
-    <row r="5" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
         <v>15</v>
@@ -3176,144 +3131,135 @@
       <c r="Q5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="X5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="27" t="s">
+      <c r="Y5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="X5" s="26" t="s">
+      <c r="Z5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="25" t="s">
+      <c r="AA5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="AB5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="18" t="s">
+      <c r="AC5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AB5" s="18" t="s">
+      <c r="AD5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="18" t="s">
+      <c r="AE5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AD5" s="18" t="s">
+      <c r="AF5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AE5" s="23" t="s">
+      <c r="AG5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AF5" s="21" t="s">
+    </row>
+    <row r="6" s="30" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AG5" s="28" t="s">
+      <c r="E6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AH5" s="28" t="s">
+      <c r="G6" s="34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="32" t="s">
+      <c r="H6" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="I6" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="J6" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="K6" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="L6" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="M6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="N6" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="O6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="P6" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="45"/>
       <c r="S6" s="45"/>
-      <c r="T6" s="42" t="s">
-        <v>59</v>
-      </c>
+      <c r="T6" s="45"/>
       <c r="U6" s="45"/>
-      <c r="V6" s="44" t="s">
-        <v>60</v>
-      </c>
+      <c r="V6" s="45"/>
       <c r="W6" s="45"/>
       <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="46" t="n">
+      <c r="Y6" s="46" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AA6" s="47" t="n">
+      <c r="Z6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="AA6" s="47" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="AB6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="AC6" s="47" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="48" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="47" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE6" s="48" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
@@ -3333,17 +3279,16 @@
       <c r="L7" s="52"/>
       <c r="M7" s="57"/>
       <c r="N7" s="56"/>
-      <c r="O7" s="29"/>
+      <c r="O7" s="30"/>
       <c r="P7" s="57"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="Z7" s="58"/>
+      <c r="S7" s="11"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="59"/>
       <c r="AA7" s="59"/>
       <c r="AB7" s="59"/>
       <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="61"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="61"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="50"/>
@@ -3361,24 +3306,23 @@
       <c r="L8" s="52"/>
       <c r="M8" s="57"/>
       <c r="N8" s="56"/>
-      <c r="O8" s="29"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="57"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="Z8" s="58"/>
+      <c r="S8" s="11"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="59"/>
       <c r="AA8" s="59"/>
       <c r="AB8" s="59"/>
       <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="61"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="61"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="50"/>
       <c r="C9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="53"/>
@@ -3389,24 +3333,23 @@
       <c r="L9" s="52"/>
       <c r="M9" s="57"/>
       <c r="N9" s="56"/>
-      <c r="O9" s="29"/>
+      <c r="O9" s="30"/>
       <c r="P9" s="57"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="Z9" s="58"/>
+      <c r="S9" s="11"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="59"/>
       <c r="AA9" s="59"/>
       <c r="AB9" s="59"/>
       <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="61"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="50"/>
       <c r="C10" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="53"/>
@@ -3417,24 +3360,23 @@
       <c r="L10" s="52"/>
       <c r="M10" s="57"/>
       <c r="N10" s="56"/>
-      <c r="O10" s="29"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="57"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="Z10" s="58"/>
+      <c r="S10" s="11"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="59"/>
       <c r="AA10" s="59"/>
       <c r="AB10" s="59"/>
       <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="61"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="50"/>
       <c r="C11" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="53"/>
@@ -3445,24 +3387,23 @@
       <c r="L11" s="52"/>
       <c r="M11" s="57"/>
       <c r="N11" s="56"/>
-      <c r="O11" s="29"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="57"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="Z11" s="58"/>
+      <c r="S11" s="11"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="59"/>
       <c r="AA11" s="59"/>
       <c r="AB11" s="59"/>
       <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="61"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="61"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="50"/>
       <c r="C12" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="53"/>
@@ -3473,24 +3414,23 @@
       <c r="L12" s="52"/>
       <c r="M12" s="57"/>
       <c r="N12" s="56"/>
-      <c r="O12" s="29"/>
+      <c r="O12" s="30"/>
       <c r="P12" s="57"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="Z12" s="58"/>
+      <c r="S12" s="11"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="59"/>
       <c r="AA12" s="59"/>
       <c r="AB12" s="59"/>
       <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="61"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="50"/>
       <c r="C13" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="53"/>
@@ -3501,24 +3441,23 @@
       <c r="L13" s="52"/>
       <c r="M13" s="57"/>
       <c r="N13" s="56"/>
-      <c r="O13" s="29"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="57"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="Z13" s="58"/>
+      <c r="S13" s="11"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="59"/>
       <c r="AA13" s="59"/>
       <c r="AB13" s="59"/>
       <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="61"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="50"/>
       <c r="C14" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="53"/>
@@ -3529,24 +3468,23 @@
       <c r="L14" s="52"/>
       <c r="M14" s="57"/>
       <c r="N14" s="56"/>
-      <c r="O14" s="29"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="57"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="Z14" s="58"/>
+      <c r="S14" s="11"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="59"/>
       <c r="AA14" s="59"/>
       <c r="AB14" s="59"/>
       <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="61"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="61"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="50"/>
       <c r="C15" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="53"/>
@@ -3557,24 +3495,23 @@
       <c r="L15" s="52"/>
       <c r="M15" s="57"/>
       <c r="N15" s="56"/>
-      <c r="O15" s="29"/>
+      <c r="O15" s="30"/>
       <c r="P15" s="57"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="Z15" s="58"/>
+      <c r="S15" s="11"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="59"/>
       <c r="AA15" s="59"/>
       <c r="AB15" s="59"/>
       <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="61"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="61"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="50"/>
       <c r="C16" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="53"/>
@@ -3585,24 +3522,23 @@
       <c r="L16" s="52"/>
       <c r="M16" s="57"/>
       <c r="N16" s="56"/>
-      <c r="O16" s="29"/>
+      <c r="O16" s="30"/>
       <c r="P16" s="57"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="Z16" s="58"/>
+      <c r="S16" s="11"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="59"/>
       <c r="AA16" s="59"/>
       <c r="AB16" s="59"/>
       <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="61"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="61"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="50"/>
       <c r="C17" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="53"/>
@@ -3613,24 +3549,23 @@
       <c r="L17" s="52"/>
       <c r="M17" s="57"/>
       <c r="N17" s="56"/>
-      <c r="O17" s="29"/>
+      <c r="O17" s="30"/>
       <c r="P17" s="57"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="Z17" s="58"/>
+      <c r="S17" s="11"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="59"/>
       <c r="AA17" s="59"/>
       <c r="AB17" s="59"/>
       <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="61"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="61"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="50"/>
       <c r="C18" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="53"/>
@@ -3641,24 +3576,23 @@
       <c r="L18" s="52"/>
       <c r="M18" s="57"/>
       <c r="N18" s="56"/>
-      <c r="O18" s="29"/>
+      <c r="O18" s="30"/>
       <c r="P18" s="57"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="Z18" s="58"/>
+      <c r="S18" s="11"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="59"/>
       <c r="AA18" s="59"/>
       <c r="AB18" s="59"/>
       <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="61"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="61"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="50"/>
       <c r="C19" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="53"/>
@@ -3669,24 +3603,23 @@
       <c r="L19" s="52"/>
       <c r="M19" s="57"/>
       <c r="N19" s="56"/>
-      <c r="O19" s="29"/>
+      <c r="O19" s="30"/>
       <c r="P19" s="57"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="Z19" s="58"/>
+      <c r="S19" s="11"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="59"/>
       <c r="AA19" s="59"/>
       <c r="AB19" s="59"/>
       <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="61"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="50"/>
       <c r="C20" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="53"/>
@@ -3697,24 +3630,23 @@
       <c r="L20" s="52"/>
       <c r="M20" s="57"/>
       <c r="N20" s="56"/>
-      <c r="O20" s="29"/>
+      <c r="O20" s="30"/>
       <c r="P20" s="57"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="Z20" s="58"/>
+      <c r="S20" s="11"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="59"/>
       <c r="AA20" s="59"/>
       <c r="AB20" s="59"/>
       <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="61"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="61"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="50"/>
       <c r="C21" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="53"/>
@@ -3725,24 +3657,23 @@
       <c r="L21" s="52"/>
       <c r="M21" s="57"/>
       <c r="N21" s="56"/>
-      <c r="O21" s="29"/>
+      <c r="O21" s="30"/>
       <c r="P21" s="57"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="Z21" s="58"/>
+      <c r="S21" s="11"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="59"/>
       <c r="AA21" s="59"/>
       <c r="AB21" s="59"/>
       <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="61"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="61"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="50"/>
       <c r="C22" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="53"/>
@@ -3753,24 +3684,23 @@
       <c r="L22" s="52"/>
       <c r="M22" s="57"/>
       <c r="N22" s="56"/>
-      <c r="O22" s="29"/>
+      <c r="O22" s="30"/>
       <c r="P22" s="57"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="Z22" s="58"/>
+      <c r="S22" s="11"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="59"/>
       <c r="AA22" s="59"/>
       <c r="AB22" s="59"/>
       <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="61"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="61"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="50"/>
       <c r="C23" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="53"/>
@@ -3781,24 +3711,23 @@
       <c r="L23" s="52"/>
       <c r="M23" s="57"/>
       <c r="N23" s="56"/>
-      <c r="O23" s="29"/>
+      <c r="O23" s="30"/>
       <c r="P23" s="57"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="Z23" s="58"/>
+      <c r="S23" s="11"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="59"/>
       <c r="AA23" s="59"/>
       <c r="AB23" s="59"/>
       <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="60"/>
-      <c r="AF23" s="61"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="61"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="50"/>
       <c r="C24" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="53"/>
@@ -3809,24 +3738,23 @@
       <c r="L24" s="52"/>
       <c r="M24" s="57"/>
       <c r="N24" s="56"/>
-      <c r="O24" s="29"/>
+      <c r="O24" s="30"/>
       <c r="P24" s="57"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="Z24" s="58"/>
+      <c r="S24" s="11"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="59"/>
       <c r="AA24" s="59"/>
       <c r="AB24" s="59"/>
       <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="60"/>
-      <c r="AF24" s="61"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="61"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="50"/>
       <c r="C25" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="53"/>
@@ -3837,24 +3765,23 @@
       <c r="L25" s="52"/>
       <c r="M25" s="57"/>
       <c r="N25" s="56"/>
-      <c r="O25" s="29"/>
+      <c r="O25" s="30"/>
       <c r="P25" s="57"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="Z25" s="58"/>
+      <c r="S25" s="11"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="59"/>
       <c r="AA25" s="59"/>
       <c r="AB25" s="59"/>
       <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="61"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="61"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="50"/>
       <c r="C26" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="53"/>
@@ -3865,24 +3792,23 @@
       <c r="L26" s="52"/>
       <c r="M26" s="57"/>
       <c r="N26" s="56"/>
-      <c r="O26" s="29"/>
+      <c r="O26" s="30"/>
       <c r="P26" s="57"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="Z26" s="58"/>
+      <c r="S26" s="11"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="59"/>
       <c r="AA26" s="59"/>
       <c r="AB26" s="59"/>
       <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="61"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="61"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="50"/>
       <c r="C27" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="53"/>
@@ -3893,24 +3819,23 @@
       <c r="L27" s="52"/>
       <c r="M27" s="57"/>
       <c r="N27" s="56"/>
-      <c r="O27" s="29"/>
+      <c r="O27" s="30"/>
       <c r="P27" s="57"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="Z27" s="58"/>
+      <c r="S27" s="11"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="59"/>
       <c r="AA27" s="59"/>
       <c r="AB27" s="59"/>
       <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="60"/>
-      <c r="AF27" s="61"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="61"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="50"/>
       <c r="C28" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="53"/>
@@ -3921,24 +3846,23 @@
       <c r="L28" s="52"/>
       <c r="M28" s="57"/>
       <c r="N28" s="56"/>
-      <c r="O28" s="29"/>
+      <c r="O28" s="30"/>
       <c r="P28" s="57"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="Z28" s="58"/>
+      <c r="S28" s="11"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="59"/>
       <c r="AA28" s="59"/>
       <c r="AB28" s="59"/>
       <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="60"/>
-      <c r="AF28" s="61"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="61"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="50"/>
       <c r="C29" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="53"/>
@@ -3946,27 +3870,26 @@
       <c r="I29" s="55"/>
       <c r="J29" s="50"/>
       <c r="K29" s="56"/>
-      <c r="L29" s="29"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="57"/>
       <c r="N29" s="56"/>
-      <c r="O29" s="29"/>
+      <c r="O29" s="30"/>
       <c r="P29" s="57"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="Z29" s="58"/>
+      <c r="S29" s="11"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="59"/>
       <c r="AA29" s="59"/>
       <c r="AB29" s="59"/>
       <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="61"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="61"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="50"/>
       <c r="C30" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="53"/>
@@ -3974,20 +3897,19 @@
       <c r="I30" s="55"/>
       <c r="J30" s="50"/>
       <c r="K30" s="56"/>
-      <c r="L30" s="29"/>
+      <c r="L30" s="30"/>
       <c r="M30" s="57"/>
       <c r="N30" s="56"/>
-      <c r="O30" s="29"/>
+      <c r="O30" s="30"/>
       <c r="P30" s="57"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="Z30" s="58"/>
+      <c r="S30" s="11"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="59"/>
       <c r="AA30" s="59"/>
       <c r="AB30" s="59"/>
       <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="60"/>
-      <c r="AF30" s="61"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3999,12 +3921,12 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:Y4"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
   </mergeCells>
-  <dataValidations count="14">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
+  <dataValidations count="16">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6:AD30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4024,7 +3946,7 @@
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AE6:AG6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
@@ -4040,7 +3962,7 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6 R7:W30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:V30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -4048,7 +3970,7 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:X6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
@@ -4058,6 +3980,14 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G30" type="list">
       <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T5:V5" type="list">
+      <formula1>"none,xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_wheel,xafs_garot,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_ref,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:S5" type="list">
+      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_refx,xafs_refy,xafs_spare,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -4085,31 +4015,29 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="26" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="34" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="25" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4146,16 +4074,15 @@
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 16</v>
+        <v>Version: 17</v>
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8" t="s">
@@ -4189,13 +4116,12 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
       <c r="AC2" s="0"/>
-      <c r="AD2" s="0"/>
-      <c r="AE2" s="10"/>
+      <c r="AD2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
@@ -4215,13 +4141,12 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
       <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="10"/>
+      <c r="AD3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
@@ -4259,22 +4184,21 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16" t="s">
+      <c r="Y4" s="16" t="s">
         <v>13</v>
       </c>
+      <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="17" t="s">
+      <c r="AE4" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-    </row>
-    <row r="5" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
         <v>15</v>
@@ -4321,144 +4245,135 @@
       <c r="Q5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="X5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="27" t="s">
+      <c r="Y5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="X5" s="26" t="s">
+      <c r="Z5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="25" t="s">
+      <c r="AA5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="AB5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="18" t="s">
+      <c r="AC5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AB5" s="18" t="s">
+      <c r="AD5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="18" t="s">
+      <c r="AE5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AD5" s="18" t="s">
+      <c r="AF5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AE5" s="23" t="s">
+      <c r="AG5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AF5" s="21" t="s">
+    </row>
+    <row r="6" s="30" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AG5" s="28" t="s">
+      <c r="E6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AH5" s="28" t="s">
+      <c r="G6" s="34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="32" t="s">
+      <c r="H6" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="I6" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="J6" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="K6" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="L6" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="M6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="N6" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="O6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="P6" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="62" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="45"/>
       <c r="S6" s="45"/>
-      <c r="T6" s="42" t="s">
-        <v>59</v>
-      </c>
+      <c r="T6" s="45"/>
       <c r="U6" s="45"/>
-      <c r="V6" s="44" t="s">
-        <v>60</v>
-      </c>
+      <c r="V6" s="45"/>
       <c r="W6" s="45"/>
       <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="46" t="n">
+      <c r="Y6" s="46" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AA6" s="47" t="n">
+      <c r="Z6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="AA6" s="47" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="AB6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="AC6" s="47" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="48" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="47" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE6" s="48" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4477,18 +4392,17 @@
       <c r="L7" s="52"/>
       <c r="M7" s="57"/>
       <c r="N7" s="56"/>
-      <c r="O7" s="29"/>
+      <c r="O7" s="30"/>
       <c r="P7" s="57"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="58"/>
+      <c r="S7" s="11"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="59"/>
       <c r="AA7" s="59"/>
       <c r="AB7" s="59"/>
       <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="61"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="61"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="50"/>
@@ -4506,25 +4420,24 @@
       <c r="L8" s="52"/>
       <c r="M8" s="57"/>
       <c r="N8" s="56"/>
-      <c r="O8" s="29"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="57"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="58"/>
+      <c r="S8" s="11"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="59"/>
       <c r="AA8" s="59"/>
       <c r="AB8" s="59"/>
       <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="61"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="61"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="50"/>
       <c r="C9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="53"/>
@@ -4535,25 +4448,24 @@
       <c r="L9" s="52"/>
       <c r="M9" s="57"/>
       <c r="N9" s="56"/>
-      <c r="O9" s="29"/>
+      <c r="O9" s="30"/>
       <c r="P9" s="57"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="58"/>
+      <c r="S9" s="11"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="59"/>
       <c r="AA9" s="59"/>
       <c r="AB9" s="59"/>
       <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="61"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="50"/>
       <c r="C10" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="53"/>
@@ -4564,25 +4476,24 @@
       <c r="L10" s="52"/>
       <c r="M10" s="57"/>
       <c r="N10" s="56"/>
-      <c r="O10" s="29"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="57"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="58"/>
+      <c r="S10" s="11"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="59"/>
       <c r="AA10" s="59"/>
       <c r="AB10" s="59"/>
       <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="61"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="50"/>
       <c r="C11" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="53"/>
@@ -4593,25 +4504,24 @@
       <c r="L11" s="52"/>
       <c r="M11" s="57"/>
       <c r="N11" s="56"/>
-      <c r="O11" s="29"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="57"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="58"/>
+      <c r="S11" s="11"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="59"/>
       <c r="AA11" s="59"/>
       <c r="AB11" s="59"/>
       <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="61"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="61"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="50"/>
       <c r="C12" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="53"/>
@@ -4622,25 +4532,24 @@
       <c r="L12" s="52"/>
       <c r="M12" s="57"/>
       <c r="N12" s="56"/>
-      <c r="O12" s="29"/>
+      <c r="O12" s="30"/>
       <c r="P12" s="57"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="58"/>
+      <c r="S12" s="11"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="59"/>
       <c r="AA12" s="59"/>
       <c r="AB12" s="59"/>
       <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="61"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="50"/>
       <c r="C13" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="53"/>
@@ -4651,25 +4560,24 @@
       <c r="L13" s="52"/>
       <c r="M13" s="57"/>
       <c r="N13" s="56"/>
-      <c r="O13" s="29"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="57"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="58"/>
+      <c r="S13" s="11"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="59"/>
       <c r="AA13" s="59"/>
       <c r="AB13" s="59"/>
       <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="61"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="50"/>
       <c r="C14" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="53"/>
@@ -4680,25 +4588,24 @@
       <c r="L14" s="52"/>
       <c r="M14" s="57"/>
       <c r="N14" s="56"/>
-      <c r="O14" s="29"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="57"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="58"/>
+      <c r="S14" s="11"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="59"/>
       <c r="AA14" s="59"/>
       <c r="AB14" s="59"/>
       <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="61"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="61"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="50"/>
       <c r="C15" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="53"/>
@@ -4709,25 +4616,24 @@
       <c r="L15" s="52"/>
       <c r="M15" s="57"/>
       <c r="N15" s="56"/>
-      <c r="O15" s="29"/>
+      <c r="O15" s="30"/>
       <c r="P15" s="57"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="58"/>
+      <c r="S15" s="11"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="59"/>
       <c r="AA15" s="59"/>
       <c r="AB15" s="59"/>
       <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="61"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="61"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="50"/>
       <c r="C16" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="53"/>
@@ -4738,25 +4644,24 @@
       <c r="L16" s="52"/>
       <c r="M16" s="57"/>
       <c r="N16" s="56"/>
-      <c r="O16" s="29"/>
+      <c r="O16" s="30"/>
       <c r="P16" s="57"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="58"/>
+      <c r="S16" s="11"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="59"/>
       <c r="AA16" s="59"/>
       <c r="AB16" s="59"/>
       <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="61"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="61"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="50"/>
       <c r="C17" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="53"/>
@@ -4767,25 +4672,24 @@
       <c r="L17" s="52"/>
       <c r="M17" s="57"/>
       <c r="N17" s="56"/>
-      <c r="O17" s="29"/>
+      <c r="O17" s="30"/>
       <c r="P17" s="57"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="58"/>
+      <c r="S17" s="11"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="59"/>
       <c r="AA17" s="59"/>
       <c r="AB17" s="59"/>
       <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="61"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="61"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="50"/>
       <c r="C18" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="53"/>
@@ -4796,25 +4700,24 @@
       <c r="L18" s="52"/>
       <c r="M18" s="57"/>
       <c r="N18" s="56"/>
-      <c r="O18" s="29"/>
+      <c r="O18" s="30"/>
       <c r="P18" s="57"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="58"/>
+      <c r="S18" s="11"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="59"/>
       <c r="AA18" s="59"/>
       <c r="AB18" s="59"/>
       <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="61"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="61"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="50"/>
       <c r="C19" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="53"/>
@@ -4825,25 +4728,24 @@
       <c r="L19" s="52"/>
       <c r="M19" s="57"/>
       <c r="N19" s="56"/>
-      <c r="O19" s="29"/>
+      <c r="O19" s="30"/>
       <c r="P19" s="57"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="58"/>
+      <c r="S19" s="11"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="59"/>
       <c r="AA19" s="59"/>
       <c r="AB19" s="59"/>
       <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="61"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="50"/>
       <c r="C20" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="53"/>
@@ -4854,25 +4756,24 @@
       <c r="L20" s="52"/>
       <c r="M20" s="57"/>
       <c r="N20" s="56"/>
-      <c r="O20" s="29"/>
+      <c r="O20" s="30"/>
       <c r="P20" s="57"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="58"/>
+      <c r="S20" s="11"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="59"/>
       <c r="AA20" s="59"/>
       <c r="AB20" s="59"/>
       <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="61"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="61"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="50"/>
       <c r="C21" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="53"/>
@@ -4883,25 +4784,24 @@
       <c r="L21" s="52"/>
       <c r="M21" s="57"/>
       <c r="N21" s="56"/>
-      <c r="O21" s="29"/>
+      <c r="O21" s="30"/>
       <c r="P21" s="57"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="58"/>
+      <c r="S21" s="11"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="59"/>
       <c r="AA21" s="59"/>
       <c r="AB21" s="59"/>
       <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="61"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="61"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="50"/>
       <c r="C22" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="53"/>
@@ -4912,25 +4812,24 @@
       <c r="L22" s="52"/>
       <c r="M22" s="57"/>
       <c r="N22" s="56"/>
-      <c r="O22" s="29"/>
+      <c r="O22" s="30"/>
       <c r="P22" s="57"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="58"/>
+      <c r="S22" s="11"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="59"/>
       <c r="AA22" s="59"/>
       <c r="AB22" s="59"/>
       <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="61"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="61"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="50"/>
       <c r="C23" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="53"/>
@@ -4941,25 +4840,24 @@
       <c r="L23" s="52"/>
       <c r="M23" s="57"/>
       <c r="N23" s="56"/>
-      <c r="O23" s="29"/>
+      <c r="O23" s="30"/>
       <c r="P23" s="57"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="58"/>
+      <c r="S23" s="11"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="59"/>
       <c r="AA23" s="59"/>
       <c r="AB23" s="59"/>
       <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="60"/>
-      <c r="AF23" s="61"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="61"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="50"/>
       <c r="C24" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="53"/>
@@ -4970,25 +4868,24 @@
       <c r="L24" s="52"/>
       <c r="M24" s="57"/>
       <c r="N24" s="56"/>
-      <c r="O24" s="29"/>
+      <c r="O24" s="30"/>
       <c r="P24" s="57"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="58"/>
+      <c r="S24" s="11"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="59"/>
       <c r="AA24" s="59"/>
       <c r="AB24" s="59"/>
       <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="60"/>
-      <c r="AF24" s="61"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="61"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="50"/>
       <c r="C25" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="53"/>
@@ -4999,25 +4896,24 @@
       <c r="L25" s="52"/>
       <c r="M25" s="57"/>
       <c r="N25" s="56"/>
-      <c r="O25" s="29"/>
+      <c r="O25" s="30"/>
       <c r="P25" s="57"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="58"/>
+      <c r="S25" s="11"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="59"/>
       <c r="AA25" s="59"/>
       <c r="AB25" s="59"/>
       <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="61"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="61"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="50"/>
       <c r="C26" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="53"/>
@@ -5028,25 +4924,24 @@
       <c r="L26" s="52"/>
       <c r="M26" s="57"/>
       <c r="N26" s="56"/>
-      <c r="O26" s="29"/>
+      <c r="O26" s="30"/>
       <c r="P26" s="57"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="58"/>
+      <c r="S26" s="11"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="59"/>
       <c r="AA26" s="59"/>
       <c r="AB26" s="59"/>
       <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="61"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="61"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="50"/>
       <c r="C27" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="53"/>
@@ -5057,25 +4952,24 @@
       <c r="L27" s="52"/>
       <c r="M27" s="57"/>
       <c r="N27" s="56"/>
-      <c r="O27" s="29"/>
+      <c r="O27" s="30"/>
       <c r="P27" s="57"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="58"/>
+      <c r="S27" s="11"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="59"/>
       <c r="AA27" s="59"/>
       <c r="AB27" s="59"/>
       <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="60"/>
-      <c r="AF27" s="61"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="61"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="50"/>
       <c r="C28" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="53"/>
@@ -5086,25 +4980,24 @@
       <c r="L28" s="52"/>
       <c r="M28" s="57"/>
       <c r="N28" s="56"/>
-      <c r="O28" s="29"/>
+      <c r="O28" s="30"/>
       <c r="P28" s="57"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="58"/>
+      <c r="S28" s="11"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="59"/>
       <c r="AA28" s="59"/>
       <c r="AB28" s="59"/>
       <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="60"/>
-      <c r="AF28" s="61"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="61"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="50"/>
       <c r="C29" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="53"/>
@@ -5112,28 +5005,27 @@
       <c r="I29" s="55"/>
       <c r="J29" s="50"/>
       <c r="K29" s="56"/>
-      <c r="L29" s="29"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="57"/>
       <c r="N29" s="56"/>
-      <c r="O29" s="29"/>
+      <c r="O29" s="30"/>
       <c r="P29" s="57"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="58"/>
+      <c r="S29" s="11"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="59"/>
       <c r="AA29" s="59"/>
       <c r="AB29" s="59"/>
       <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="61"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="61"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="50"/>
       <c r="C30" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="53"/>
@@ -5141,21 +5033,20 @@
       <c r="I30" s="55"/>
       <c r="J30" s="50"/>
       <c r="K30" s="56"/>
-      <c r="L30" s="29"/>
+      <c r="L30" s="30"/>
       <c r="M30" s="57"/>
       <c r="N30" s="56"/>
-      <c r="O30" s="29"/>
+      <c r="O30" s="30"/>
       <c r="P30" s="57"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="Y30" s="63"/>
-      <c r="Z30" s="58"/>
+      <c r="S30" s="11"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="59"/>
       <c r="AA30" s="59"/>
       <c r="AB30" s="59"/>
       <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="60"/>
-      <c r="AF30" s="61"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5168,12 +5059,12 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:Y4"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
   </mergeCells>
-  <dataValidations count="14">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
+  <dataValidations count="16">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6:AD30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5193,7 +5084,7 @@
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AE6:AG6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
@@ -5209,7 +5100,7 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T6 R7:W30 Y7:Y30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:V30 X7:X30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -5217,7 +5108,7 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:X6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
@@ -5227,6 +5118,14 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T5:V5" type="list">
+      <formula1>"none,xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_wheel,xafs_garot,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_ref,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:S5" type="list">
+      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_refx,xafs_refy,xafs_spare,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -5247,38 +5146,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AH30"/>
+  <dimension ref="B1:AMJ30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="26" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="34" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="25" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5315,12 +5212,11 @@
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 16</v>
+        <v>Version: 17</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -5351,13 +5247,12 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
       <c r="AC2" s="0"/>
-      <c r="AD2" s="0"/>
-      <c r="AE2" s="10"/>
+      <c r="AD2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
@@ -5377,13 +5272,12 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
       <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="10"/>
+      <c r="AD3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
@@ -5421,22 +5315,21 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16" t="s">
+      <c r="Y4" s="16" t="s">
         <v>13</v>
       </c>
+      <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="17" t="s">
+      <c r="AE4" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-    </row>
-    <row r="5" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
         <v>15</v>
@@ -5483,144 +5376,135 @@
       <c r="Q5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="X5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="27" t="s">
+      <c r="Y5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="X5" s="26" t="s">
+      <c r="Z5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="25" t="s">
+      <c r="AA5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="AB5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="18" t="s">
+      <c r="AC5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AB5" s="18" t="s">
+      <c r="AD5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="18" t="s">
+      <c r="AE5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AD5" s="18" t="s">
+      <c r="AF5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AE5" s="23" t="s">
+      <c r="AG5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AF5" s="21" t="s">
+    </row>
+    <row r="6" s="30" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AG5" s="28" t="s">
+      <c r="E6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AH5" s="28" t="s">
+      <c r="G6" s="34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="32" t="s">
+      <c r="H6" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="I6" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="J6" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="K6" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="L6" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="M6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="N6" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="O6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="P6" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="64" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="45"/>
       <c r="S6" s="45"/>
-      <c r="T6" s="42" t="s">
-        <v>59</v>
-      </c>
+      <c r="T6" s="45"/>
       <c r="U6" s="45"/>
-      <c r="V6" s="44" t="s">
-        <v>60</v>
-      </c>
+      <c r="V6" s="45"/>
       <c r="W6" s="45"/>
       <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="46" t="n">
+      <c r="Y6" s="46" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AA6" s="47" t="n">
+      <c r="Z6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="AA6" s="47" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="AB6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="AC6" s="47" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="48" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="47" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE6" s="48" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="50"/>
@@ -5638,18 +5522,17 @@
       <c r="L7" s="52"/>
       <c r="M7" s="57"/>
       <c r="N7" s="56"/>
-      <c r="O7" s="29"/>
+      <c r="O7" s="30"/>
       <c r="P7" s="57"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="58"/>
+      <c r="S7" s="11"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="59"/>
       <c r="AA7" s="59"/>
       <c r="AB7" s="59"/>
       <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="61"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="61"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="50"/>
@@ -5667,25 +5550,24 @@
       <c r="L8" s="52"/>
       <c r="M8" s="57"/>
       <c r="N8" s="56"/>
-      <c r="O8" s="29"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="57"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="58"/>
+      <c r="S8" s="11"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="59"/>
       <c r="AA8" s="59"/>
       <c r="AB8" s="59"/>
       <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="61"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="61"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="50"/>
       <c r="C9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="53"/>
@@ -5696,25 +5578,24 @@
       <c r="L9" s="52"/>
       <c r="M9" s="57"/>
       <c r="N9" s="56"/>
-      <c r="O9" s="29"/>
+      <c r="O9" s="30"/>
       <c r="P9" s="57"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="58"/>
+      <c r="S9" s="11"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="59"/>
       <c r="AA9" s="59"/>
       <c r="AB9" s="59"/>
       <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="61"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="50"/>
       <c r="C10" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="53"/>
@@ -5725,25 +5606,24 @@
       <c r="L10" s="52"/>
       <c r="M10" s="57"/>
       <c r="N10" s="56"/>
-      <c r="O10" s="29"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="57"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="58"/>
+      <c r="S10" s="11"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="59"/>
       <c r="AA10" s="59"/>
       <c r="AB10" s="59"/>
       <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="61"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="50"/>
       <c r="C11" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="53"/>
@@ -5754,25 +5634,24 @@
       <c r="L11" s="52"/>
       <c r="M11" s="57"/>
       <c r="N11" s="56"/>
-      <c r="O11" s="29"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="57"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="58"/>
+      <c r="S11" s="11"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="59"/>
       <c r="AA11" s="59"/>
       <c r="AB11" s="59"/>
       <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="61"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="61"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="50"/>
       <c r="C12" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="53"/>
@@ -5783,25 +5662,24 @@
       <c r="L12" s="52"/>
       <c r="M12" s="57"/>
       <c r="N12" s="56"/>
-      <c r="O12" s="29"/>
+      <c r="O12" s="30"/>
       <c r="P12" s="57"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="58"/>
+      <c r="S12" s="11"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="59"/>
       <c r="AA12" s="59"/>
       <c r="AB12" s="59"/>
       <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="61"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="50"/>
       <c r="C13" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="53"/>
@@ -5812,25 +5690,24 @@
       <c r="L13" s="52"/>
       <c r="M13" s="57"/>
       <c r="N13" s="56"/>
-      <c r="O13" s="29"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="57"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="58"/>
+      <c r="S13" s="11"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="59"/>
       <c r="AA13" s="59"/>
       <c r="AB13" s="59"/>
       <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="61"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="50"/>
       <c r="C14" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="53"/>
@@ -5841,25 +5718,24 @@
       <c r="L14" s="52"/>
       <c r="M14" s="57"/>
       <c r="N14" s="56"/>
-      <c r="O14" s="29"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="57"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="58"/>
+      <c r="S14" s="11"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="59"/>
       <c r="AA14" s="59"/>
       <c r="AB14" s="59"/>
       <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="61"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="61"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="50"/>
       <c r="C15" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="53"/>
@@ -5870,25 +5746,24 @@
       <c r="L15" s="52"/>
       <c r="M15" s="57"/>
       <c r="N15" s="56"/>
-      <c r="O15" s="29"/>
+      <c r="O15" s="30"/>
       <c r="P15" s="57"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="58"/>
+      <c r="S15" s="11"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="59"/>
       <c r="AA15" s="59"/>
       <c r="AB15" s="59"/>
       <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="61"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="61"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="50"/>
       <c r="C16" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="53"/>
@@ -5899,25 +5774,24 @@
       <c r="L16" s="52"/>
       <c r="M16" s="57"/>
       <c r="N16" s="56"/>
-      <c r="O16" s="29"/>
+      <c r="O16" s="30"/>
       <c r="P16" s="57"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="58"/>
+      <c r="S16" s="11"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="59"/>
       <c r="AA16" s="59"/>
       <c r="AB16" s="59"/>
       <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="61"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="61"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="50"/>
       <c r="C17" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="53"/>
@@ -5928,25 +5802,24 @@
       <c r="L17" s="52"/>
       <c r="M17" s="57"/>
       <c r="N17" s="56"/>
-      <c r="O17" s="29"/>
+      <c r="O17" s="30"/>
       <c r="P17" s="57"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="58"/>
+      <c r="S17" s="11"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="59"/>
       <c r="AA17" s="59"/>
       <c r="AB17" s="59"/>
       <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="61"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="61"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="50"/>
       <c r="C18" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="53"/>
@@ -5957,25 +5830,24 @@
       <c r="L18" s="52"/>
       <c r="M18" s="57"/>
       <c r="N18" s="56"/>
-      <c r="O18" s="29"/>
+      <c r="O18" s="30"/>
       <c r="P18" s="57"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="58"/>
+      <c r="S18" s="11"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="59"/>
       <c r="AA18" s="59"/>
       <c r="AB18" s="59"/>
       <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="61"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="61"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="50"/>
       <c r="C19" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="53"/>
@@ -5986,25 +5858,24 @@
       <c r="L19" s="52"/>
       <c r="M19" s="57"/>
       <c r="N19" s="56"/>
-      <c r="O19" s="29"/>
+      <c r="O19" s="30"/>
       <c r="P19" s="57"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="58"/>
+      <c r="S19" s="11"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="59"/>
       <c r="AA19" s="59"/>
       <c r="AB19" s="59"/>
       <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="61"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="50"/>
       <c r="C20" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="53"/>
@@ -6015,25 +5886,24 @@
       <c r="L20" s="52"/>
       <c r="M20" s="57"/>
       <c r="N20" s="56"/>
-      <c r="O20" s="29"/>
+      <c r="O20" s="30"/>
       <c r="P20" s="57"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="58"/>
+      <c r="S20" s="11"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="59"/>
       <c r="AA20" s="59"/>
       <c r="AB20" s="59"/>
       <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="61"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="61"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="50"/>
       <c r="C21" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="53"/>
@@ -6044,25 +5914,24 @@
       <c r="L21" s="52"/>
       <c r="M21" s="57"/>
       <c r="N21" s="56"/>
-      <c r="O21" s="29"/>
+      <c r="O21" s="30"/>
       <c r="P21" s="57"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="58"/>
+      <c r="S21" s="11"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="59"/>
       <c r="AA21" s="59"/>
       <c r="AB21" s="59"/>
       <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="61"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="61"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="50"/>
       <c r="C22" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="53"/>
@@ -6073,25 +5942,24 @@
       <c r="L22" s="52"/>
       <c r="M22" s="57"/>
       <c r="N22" s="56"/>
-      <c r="O22" s="29"/>
+      <c r="O22" s="30"/>
       <c r="P22" s="57"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="58"/>
+      <c r="S22" s="11"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="59"/>
       <c r="AA22" s="59"/>
       <c r="AB22" s="59"/>
       <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="61"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="61"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="50"/>
       <c r="C23" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="53"/>
@@ -6102,25 +5970,24 @@
       <c r="L23" s="52"/>
       <c r="M23" s="57"/>
       <c r="N23" s="56"/>
-      <c r="O23" s="29"/>
+      <c r="O23" s="30"/>
       <c r="P23" s="57"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="58"/>
+      <c r="S23" s="11"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="59"/>
       <c r="AA23" s="59"/>
       <c r="AB23" s="59"/>
       <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="60"/>
-      <c r="AF23" s="61"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="61"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="50"/>
       <c r="C24" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="53"/>
@@ -6131,25 +5998,24 @@
       <c r="L24" s="52"/>
       <c r="M24" s="57"/>
       <c r="N24" s="56"/>
-      <c r="O24" s="29"/>
+      <c r="O24" s="30"/>
       <c r="P24" s="57"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="58"/>
+      <c r="S24" s="11"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="59"/>
       <c r="AA24" s="59"/>
       <c r="AB24" s="59"/>
       <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="60"/>
-      <c r="AF24" s="61"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="61"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="50"/>
       <c r="C25" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="53"/>
@@ -6160,25 +6026,24 @@
       <c r="L25" s="52"/>
       <c r="M25" s="57"/>
       <c r="N25" s="56"/>
-      <c r="O25" s="29"/>
+      <c r="O25" s="30"/>
       <c r="P25" s="57"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="58"/>
+      <c r="S25" s="11"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="59"/>
       <c r="AA25" s="59"/>
       <c r="AB25" s="59"/>
       <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="61"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="61"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="50"/>
       <c r="C26" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="53"/>
@@ -6189,25 +6054,24 @@
       <c r="L26" s="52"/>
       <c r="M26" s="57"/>
       <c r="N26" s="56"/>
-      <c r="O26" s="29"/>
+      <c r="O26" s="30"/>
       <c r="P26" s="57"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="58"/>
+      <c r="S26" s="11"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="59"/>
       <c r="AA26" s="59"/>
       <c r="AB26" s="59"/>
       <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="61"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="61"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="50"/>
       <c r="C27" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="53"/>
@@ -6218,25 +6082,24 @@
       <c r="L27" s="52"/>
       <c r="M27" s="57"/>
       <c r="N27" s="56"/>
-      <c r="O27" s="29"/>
+      <c r="O27" s="30"/>
       <c r="P27" s="57"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="58"/>
+      <c r="S27" s="11"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="59"/>
       <c r="AA27" s="59"/>
       <c r="AB27" s="59"/>
       <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="60"/>
-      <c r="AF27" s="61"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="61"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="50"/>
       <c r="C28" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="53"/>
@@ -6247,25 +6110,24 @@
       <c r="L28" s="52"/>
       <c r="M28" s="57"/>
       <c r="N28" s="56"/>
-      <c r="O28" s="29"/>
+      <c r="O28" s="30"/>
       <c r="P28" s="57"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="58"/>
+      <c r="S28" s="11"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="59"/>
       <c r="AA28" s="59"/>
       <c r="AB28" s="59"/>
       <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="60"/>
-      <c r="AF28" s="61"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="61"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="50"/>
       <c r="C29" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="53"/>
@@ -6273,28 +6135,27 @@
       <c r="I29" s="55"/>
       <c r="J29" s="50"/>
       <c r="K29" s="56"/>
-      <c r="L29" s="29"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="57"/>
       <c r="N29" s="56"/>
-      <c r="O29" s="29"/>
+      <c r="O29" s="30"/>
       <c r="P29" s="57"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="58"/>
+      <c r="S29" s="11"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="59"/>
       <c r="AA29" s="59"/>
       <c r="AB29" s="59"/>
       <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="61"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="61"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="50"/>
       <c r="C30" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="53"/>
@@ -6302,21 +6163,20 @@
       <c r="I30" s="55"/>
       <c r="J30" s="50"/>
       <c r="K30" s="56"/>
-      <c r="L30" s="29"/>
+      <c r="L30" s="30"/>
       <c r="M30" s="57"/>
       <c r="N30" s="56"/>
-      <c r="O30" s="29"/>
+      <c r="O30" s="30"/>
       <c r="P30" s="57"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="Y30" s="63"/>
-      <c r="Z30" s="58"/>
+      <c r="S30" s="11"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="59"/>
       <c r="AA30" s="59"/>
       <c r="AB30" s="59"/>
       <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="60"/>
-      <c r="AF30" s="61"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6328,12 +6188,12 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:Y4"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
+  <dataValidations count="17">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6:AD30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6353,7 +6213,7 @@
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AE6:AG6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
@@ -6369,7 +6229,7 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30 T6 V7:W30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7:V30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -6377,7 +6237,7 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:X6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
@@ -6389,9 +6249,17 @@
       <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:S30 X7:X30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T5:V5" type="list">
+      <formula1>"none,xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_wheel,xafs_garot,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_ref,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:S5" type="list">
+      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6411,38 +6279,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AH30"/>
+  <dimension ref="B1:AMJ30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="12.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="26" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="34" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="25" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6479,12 +6345,11 @@
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 16</v>
+        <v>Version: 17</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -6515,13 +6380,12 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
       <c r="AC2" s="0"/>
-      <c r="AD2" s="0"/>
-      <c r="AE2" s="10"/>
+      <c r="AD2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
@@ -6541,13 +6405,12 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
       <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="10"/>
+      <c r="AD3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
@@ -6585,22 +6448,21 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16" t="s">
+      <c r="Y4" s="16" t="s">
         <v>13</v>
       </c>
+      <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="17" t="s">
+      <c r="AE4" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-    </row>
-    <row r="5" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
         <v>15</v>
@@ -6647,144 +6509,135 @@
       <c r="Q5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="X5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="27" t="s">
+      <c r="Y5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="X5" s="26" t="s">
+      <c r="Z5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="25" t="s">
+      <c r="AA5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="AB5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="18" t="s">
+      <c r="AC5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AB5" s="18" t="s">
+      <c r="AD5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="18" t="s">
+      <c r="AE5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AD5" s="18" t="s">
+      <c r="AF5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AE5" s="23" t="s">
+      <c r="AG5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AF5" s="21" t="s">
+    </row>
+    <row r="6" s="30" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AG5" s="28" t="s">
+      <c r="E6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AH5" s="28" t="s">
+      <c r="G6" s="34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="32" t="s">
+      <c r="H6" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="I6" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="J6" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="K6" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="L6" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="M6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="N6" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="O6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="P6" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="64" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="45"/>
       <c r="S6" s="45"/>
-      <c r="T6" s="42" t="s">
-        <v>59</v>
-      </c>
+      <c r="T6" s="45"/>
       <c r="U6" s="45"/>
-      <c r="V6" s="44" t="s">
-        <v>60</v>
-      </c>
+      <c r="V6" s="45"/>
       <c r="W6" s="45"/>
       <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="46" t="n">
+      <c r="Y6" s="46" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AA6" s="47" t="n">
+      <c r="Z6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="AA6" s="47" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="AB6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="AC6" s="47" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="48" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="47" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE6" s="48" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="50"/>
@@ -6802,18 +6655,17 @@
       <c r="L7" s="52"/>
       <c r="M7" s="57"/>
       <c r="N7" s="56"/>
-      <c r="O7" s="29"/>
+      <c r="O7" s="30"/>
       <c r="P7" s="57"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="58"/>
+      <c r="S7" s="11"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="59"/>
       <c r="AA7" s="59"/>
       <c r="AB7" s="59"/>
       <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="61"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="61"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="50"/>
@@ -6831,25 +6683,24 @@
       <c r="L8" s="52"/>
       <c r="M8" s="57"/>
       <c r="N8" s="56"/>
-      <c r="O8" s="29"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="57"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="58"/>
+      <c r="S8" s="11"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="59"/>
       <c r="AA8" s="59"/>
       <c r="AB8" s="59"/>
       <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="61"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="61"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="50"/>
       <c r="C9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="53"/>
@@ -6860,25 +6711,24 @@
       <c r="L9" s="52"/>
       <c r="M9" s="57"/>
       <c r="N9" s="56"/>
-      <c r="O9" s="29"/>
+      <c r="O9" s="30"/>
       <c r="P9" s="57"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="58"/>
+      <c r="S9" s="11"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="59"/>
       <c r="AA9" s="59"/>
       <c r="AB9" s="59"/>
       <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="61"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="50"/>
       <c r="C10" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="53"/>
@@ -6889,25 +6739,24 @@
       <c r="L10" s="52"/>
       <c r="M10" s="57"/>
       <c r="N10" s="56"/>
-      <c r="O10" s="29"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="57"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="58"/>
+      <c r="S10" s="11"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="59"/>
       <c r="AA10" s="59"/>
       <c r="AB10" s="59"/>
       <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="61"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="50"/>
       <c r="C11" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="53"/>
@@ -6918,25 +6767,24 @@
       <c r="L11" s="52"/>
       <c r="M11" s="57"/>
       <c r="N11" s="56"/>
-      <c r="O11" s="29"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="57"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="58"/>
+      <c r="S11" s="11"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="59"/>
       <c r="AA11" s="59"/>
       <c r="AB11" s="59"/>
       <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="61"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="61"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="50"/>
       <c r="C12" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="53"/>
@@ -6947,25 +6795,24 @@
       <c r="L12" s="52"/>
       <c r="M12" s="57"/>
       <c r="N12" s="56"/>
-      <c r="O12" s="29"/>
+      <c r="O12" s="30"/>
       <c r="P12" s="57"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="58"/>
+      <c r="S12" s="11"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="59"/>
       <c r="AA12" s="59"/>
       <c r="AB12" s="59"/>
       <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="61"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="50"/>
       <c r="C13" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="53"/>
@@ -6976,25 +6823,24 @@
       <c r="L13" s="52"/>
       <c r="M13" s="57"/>
       <c r="N13" s="56"/>
-      <c r="O13" s="29"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="57"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="58"/>
+      <c r="S13" s="11"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="59"/>
       <c r="AA13" s="59"/>
       <c r="AB13" s="59"/>
       <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="61"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="50"/>
       <c r="C14" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="53"/>
@@ -7005,25 +6851,24 @@
       <c r="L14" s="52"/>
       <c r="M14" s="57"/>
       <c r="N14" s="56"/>
-      <c r="O14" s="29"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="57"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="58"/>
+      <c r="S14" s="11"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="59"/>
       <c r="AA14" s="59"/>
       <c r="AB14" s="59"/>
       <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="61"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="61"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="50"/>
       <c r="C15" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="53"/>
@@ -7034,25 +6879,24 @@
       <c r="L15" s="52"/>
       <c r="M15" s="57"/>
       <c r="N15" s="56"/>
-      <c r="O15" s="29"/>
+      <c r="O15" s="30"/>
       <c r="P15" s="57"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="58"/>
+      <c r="S15" s="11"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="59"/>
       <c r="AA15" s="59"/>
       <c r="AB15" s="59"/>
       <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="61"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="61"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="50"/>
       <c r="C16" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="53"/>
@@ -7063,25 +6907,24 @@
       <c r="L16" s="52"/>
       <c r="M16" s="57"/>
       <c r="N16" s="56"/>
-      <c r="O16" s="29"/>
+      <c r="O16" s="30"/>
       <c r="P16" s="57"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="58"/>
+      <c r="S16" s="11"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="59"/>
       <c r="AA16" s="59"/>
       <c r="AB16" s="59"/>
       <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="61"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="61"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="50"/>
       <c r="C17" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="53"/>
@@ -7092,25 +6935,24 @@
       <c r="L17" s="52"/>
       <c r="M17" s="57"/>
       <c r="N17" s="56"/>
-      <c r="O17" s="29"/>
+      <c r="O17" s="30"/>
       <c r="P17" s="57"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="58"/>
+      <c r="S17" s="11"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="59"/>
       <c r="AA17" s="59"/>
       <c r="AB17" s="59"/>
       <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="61"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="61"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="50"/>
       <c r="C18" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="53"/>
@@ -7121,25 +6963,24 @@
       <c r="L18" s="52"/>
       <c r="M18" s="57"/>
       <c r="N18" s="56"/>
-      <c r="O18" s="29"/>
+      <c r="O18" s="30"/>
       <c r="P18" s="57"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="58"/>
+      <c r="S18" s="11"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="59"/>
       <c r="AA18" s="59"/>
       <c r="AB18" s="59"/>
       <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="61"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="61"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="50"/>
       <c r="C19" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="53"/>
@@ -7150,25 +6991,24 @@
       <c r="L19" s="52"/>
       <c r="M19" s="57"/>
       <c r="N19" s="56"/>
-      <c r="O19" s="29"/>
+      <c r="O19" s="30"/>
       <c r="P19" s="57"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="58"/>
+      <c r="S19" s="11"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="59"/>
       <c r="AA19" s="59"/>
       <c r="AB19" s="59"/>
       <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="61"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="50"/>
       <c r="C20" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="53"/>
@@ -7179,25 +7019,24 @@
       <c r="L20" s="52"/>
       <c r="M20" s="57"/>
       <c r="N20" s="56"/>
-      <c r="O20" s="29"/>
+      <c r="O20" s="30"/>
       <c r="P20" s="57"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="58"/>
+      <c r="S20" s="11"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="59"/>
       <c r="AA20" s="59"/>
       <c r="AB20" s="59"/>
       <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="61"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="61"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="50"/>
       <c r="C21" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="53"/>
@@ -7208,25 +7047,24 @@
       <c r="L21" s="52"/>
       <c r="M21" s="57"/>
       <c r="N21" s="56"/>
-      <c r="O21" s="29"/>
+      <c r="O21" s="30"/>
       <c r="P21" s="57"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="58"/>
+      <c r="S21" s="11"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="59"/>
       <c r="AA21" s="59"/>
       <c r="AB21" s="59"/>
       <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="61"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="61"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="50"/>
       <c r="C22" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="53"/>
@@ -7237,25 +7075,24 @@
       <c r="L22" s="52"/>
       <c r="M22" s="57"/>
       <c r="N22" s="56"/>
-      <c r="O22" s="29"/>
+      <c r="O22" s="30"/>
       <c r="P22" s="57"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="58"/>
+      <c r="S22" s="11"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="59"/>
       <c r="AA22" s="59"/>
       <c r="AB22" s="59"/>
       <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="61"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="61"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="50"/>
       <c r="C23" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="53"/>
@@ -7266,25 +7103,24 @@
       <c r="L23" s="52"/>
       <c r="M23" s="57"/>
       <c r="N23" s="56"/>
-      <c r="O23" s="29"/>
+      <c r="O23" s="30"/>
       <c r="P23" s="57"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="58"/>
+      <c r="S23" s="11"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="59"/>
       <c r="AA23" s="59"/>
       <c r="AB23" s="59"/>
       <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="60"/>
-      <c r="AF23" s="61"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="61"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="50"/>
       <c r="C24" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="53"/>
@@ -7295,25 +7131,24 @@
       <c r="L24" s="52"/>
       <c r="M24" s="57"/>
       <c r="N24" s="56"/>
-      <c r="O24" s="29"/>
+      <c r="O24" s="30"/>
       <c r="P24" s="57"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="58"/>
+      <c r="S24" s="11"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="59"/>
       <c r="AA24" s="59"/>
       <c r="AB24" s="59"/>
       <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="60"/>
-      <c r="AF24" s="61"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="61"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="50"/>
       <c r="C25" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="53"/>
@@ -7324,25 +7159,24 @@
       <c r="L25" s="52"/>
       <c r="M25" s="57"/>
       <c r="N25" s="56"/>
-      <c r="O25" s="29"/>
+      <c r="O25" s="30"/>
       <c r="P25" s="57"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="58"/>
+      <c r="S25" s="11"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="59"/>
       <c r="AA25" s="59"/>
       <c r="AB25" s="59"/>
       <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="61"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="61"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="50"/>
       <c r="C26" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="53"/>
@@ -7353,25 +7187,24 @@
       <c r="L26" s="52"/>
       <c r="M26" s="57"/>
       <c r="N26" s="56"/>
-      <c r="O26" s="29"/>
+      <c r="O26" s="30"/>
       <c r="P26" s="57"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="58"/>
+      <c r="S26" s="11"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="59"/>
       <c r="AA26" s="59"/>
       <c r="AB26" s="59"/>
       <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="61"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="61"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="50"/>
       <c r="C27" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="53"/>
@@ -7382,25 +7215,24 @@
       <c r="L27" s="52"/>
       <c r="M27" s="57"/>
       <c r="N27" s="56"/>
-      <c r="O27" s="29"/>
+      <c r="O27" s="30"/>
       <c r="P27" s="57"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="58"/>
+      <c r="S27" s="11"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="59"/>
       <c r="AA27" s="59"/>
       <c r="AB27" s="59"/>
       <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="60"/>
-      <c r="AF27" s="61"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="61"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="50"/>
       <c r="C28" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="53"/>
@@ -7411,25 +7243,24 @@
       <c r="L28" s="52"/>
       <c r="M28" s="57"/>
       <c r="N28" s="56"/>
-      <c r="O28" s="29"/>
+      <c r="O28" s="30"/>
       <c r="P28" s="57"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="58"/>
+      <c r="S28" s="11"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="59"/>
       <c r="AA28" s="59"/>
       <c r="AB28" s="59"/>
       <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="60"/>
-      <c r="AF28" s="61"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="61"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="50"/>
       <c r="C29" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="53"/>
@@ -7437,28 +7268,27 @@
       <c r="I29" s="55"/>
       <c r="J29" s="50"/>
       <c r="K29" s="56"/>
-      <c r="L29" s="29"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="57"/>
       <c r="N29" s="56"/>
-      <c r="O29" s="29"/>
+      <c r="O29" s="30"/>
       <c r="P29" s="57"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="58"/>
+      <c r="S29" s="11"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="59"/>
       <c r="AA29" s="59"/>
       <c r="AB29" s="59"/>
       <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="61"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="61"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="50"/>
       <c r="C30" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="53"/>
@@ -7466,21 +7296,20 @@
       <c r="I30" s="55"/>
       <c r="J30" s="50"/>
       <c r="K30" s="56"/>
-      <c r="L30" s="29"/>
+      <c r="L30" s="30"/>
       <c r="M30" s="57"/>
       <c r="N30" s="56"/>
-      <c r="O30" s="29"/>
+      <c r="O30" s="30"/>
       <c r="P30" s="57"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="Y30" s="63"/>
-      <c r="Z30" s="58"/>
+      <c r="S30" s="11"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="59"/>
       <c r="AA30" s="59"/>
       <c r="AB30" s="59"/>
       <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="60"/>
-      <c r="AF30" s="61"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7492,12 +7321,12 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:Y4"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
+  <dataValidations count="17">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6:AD30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7517,7 +7346,7 @@
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AE6:AG6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
@@ -7533,7 +7362,7 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30 T6 V7:W30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7:V30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -7541,7 +7370,7 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:X6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
@@ -7553,9 +7382,17 @@
       <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:S30 X7:X30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T5:V5" type="list">
+      <formula1>"none,xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_wheel,xafs_garot,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_ref,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:S5" type="list">
+      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7575,38 +7412,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AH30"/>
+  <dimension ref="B1:AMJ30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="26" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="34" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="25" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7643,12 +7478,11 @@
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 16</v>
+        <v>Version: 17</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -7679,13 +7513,12 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
       <c r="AC2" s="0"/>
-      <c r="AD2" s="0"/>
-      <c r="AE2" s="10"/>
+      <c r="AD2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
@@ -7705,13 +7538,12 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
       <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="10"/>
+      <c r="AD3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
@@ -7749,22 +7581,21 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16" t="s">
+      <c r="Y4" s="16" t="s">
         <v>13</v>
       </c>
+      <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="17" t="s">
+      <c r="AE4" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="AF4" s="17"/>
       <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-    </row>
-    <row r="5" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
         <v>15</v>
@@ -7811,144 +7642,135 @@
       <c r="Q5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="X5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="27" t="s">
+      <c r="Y5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="X5" s="26" t="s">
+      <c r="Z5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="25" t="s">
+      <c r="AA5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="AB5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="18" t="s">
+      <c r="AC5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AB5" s="18" t="s">
+      <c r="AD5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="18" t="s">
+      <c r="AE5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AD5" s="18" t="s">
+      <c r="AF5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AE5" s="23" t="s">
+      <c r="AG5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AF5" s="21" t="s">
+    </row>
+    <row r="6" s="30" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AG5" s="28" t="s">
+      <c r="E6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AH5" s="28" t="s">
+      <c r="G6" s="34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="32" t="s">
+      <c r="H6" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="I6" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="J6" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="K6" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="L6" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="M6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="N6" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="O6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="P6" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="64" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="45"/>
       <c r="S6" s="45"/>
-      <c r="T6" s="42" t="s">
-        <v>59</v>
-      </c>
+      <c r="T6" s="45"/>
       <c r="U6" s="45"/>
-      <c r="V6" s="44" t="s">
-        <v>60</v>
-      </c>
+      <c r="V6" s="45"/>
       <c r="W6" s="45"/>
       <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="46" t="n">
+      <c r="Y6" s="46" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AA6" s="47" t="n">
+      <c r="Z6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="AA6" s="47" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="AB6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="AC6" s="47" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="48" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="47" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="AE6" s="48" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="50"/>
@@ -7966,18 +7788,17 @@
       <c r="L7" s="52"/>
       <c r="M7" s="57"/>
       <c r="N7" s="56"/>
-      <c r="O7" s="29"/>
+      <c r="O7" s="30"/>
       <c r="P7" s="57"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="58"/>
+      <c r="S7" s="11"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="59"/>
       <c r="AA7" s="59"/>
       <c r="AB7" s="59"/>
       <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="61"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="61"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="50"/>
@@ -7995,25 +7816,24 @@
       <c r="L8" s="52"/>
       <c r="M8" s="57"/>
       <c r="N8" s="56"/>
-      <c r="O8" s="29"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="57"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="58"/>
+      <c r="S8" s="11"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="59"/>
       <c r="AA8" s="59"/>
       <c r="AB8" s="59"/>
       <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="61"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="61"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="50"/>
       <c r="C9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="53"/>
@@ -8024,25 +7844,24 @@
       <c r="L9" s="52"/>
       <c r="M9" s="57"/>
       <c r="N9" s="56"/>
-      <c r="O9" s="29"/>
+      <c r="O9" s="30"/>
       <c r="P9" s="57"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="58"/>
+      <c r="S9" s="11"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="59"/>
       <c r="AA9" s="59"/>
       <c r="AB9" s="59"/>
       <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="61"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="50"/>
       <c r="C10" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="53"/>
@@ -8053,25 +7872,24 @@
       <c r="L10" s="52"/>
       <c r="M10" s="57"/>
       <c r="N10" s="56"/>
-      <c r="O10" s="29"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="57"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="58"/>
+      <c r="S10" s="11"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="59"/>
       <c r="AA10" s="59"/>
       <c r="AB10" s="59"/>
       <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="61"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="50"/>
       <c r="C11" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="53"/>
@@ -8082,25 +7900,24 @@
       <c r="L11" s="52"/>
       <c r="M11" s="57"/>
       <c r="N11" s="56"/>
-      <c r="O11" s="29"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="57"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="58"/>
+      <c r="S11" s="11"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="59"/>
       <c r="AA11" s="59"/>
       <c r="AB11" s="59"/>
       <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="61"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="61"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="50"/>
       <c r="C12" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="53"/>
@@ -8111,25 +7928,24 @@
       <c r="L12" s="52"/>
       <c r="M12" s="57"/>
       <c r="N12" s="56"/>
-      <c r="O12" s="29"/>
+      <c r="O12" s="30"/>
       <c r="P12" s="57"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="58"/>
+      <c r="S12" s="11"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="59"/>
       <c r="AA12" s="59"/>
       <c r="AB12" s="59"/>
       <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="61"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="50"/>
       <c r="C13" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="53"/>
@@ -8140,25 +7956,24 @@
       <c r="L13" s="52"/>
       <c r="M13" s="57"/>
       <c r="N13" s="56"/>
-      <c r="O13" s="29"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="57"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="58"/>
+      <c r="S13" s="11"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="59"/>
       <c r="AA13" s="59"/>
       <c r="AB13" s="59"/>
       <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="61"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="50"/>
       <c r="C14" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="53"/>
@@ -8169,25 +7984,24 @@
       <c r="L14" s="52"/>
       <c r="M14" s="57"/>
       <c r="N14" s="56"/>
-      <c r="O14" s="29"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="57"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="58"/>
+      <c r="S14" s="11"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="59"/>
       <c r="AA14" s="59"/>
       <c r="AB14" s="59"/>
       <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="61"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="61"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="50"/>
       <c r="C15" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="53"/>
@@ -8198,25 +8012,24 @@
       <c r="L15" s="52"/>
       <c r="M15" s="57"/>
       <c r="N15" s="56"/>
-      <c r="O15" s="29"/>
+      <c r="O15" s="30"/>
       <c r="P15" s="57"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="58"/>
+      <c r="S15" s="11"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="59"/>
       <c r="AA15" s="59"/>
       <c r="AB15" s="59"/>
       <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="61"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="61"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="50"/>
       <c r="C16" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="53"/>
@@ -8227,25 +8040,24 @@
       <c r="L16" s="52"/>
       <c r="M16" s="57"/>
       <c r="N16" s="56"/>
-      <c r="O16" s="29"/>
+      <c r="O16" s="30"/>
       <c r="P16" s="57"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="58"/>
+      <c r="S16" s="11"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="59"/>
       <c r="AA16" s="59"/>
       <c r="AB16" s="59"/>
       <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="61"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="61"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="50"/>
       <c r="C17" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="53"/>
@@ -8256,25 +8068,24 @@
       <c r="L17" s="52"/>
       <c r="M17" s="57"/>
       <c r="N17" s="56"/>
-      <c r="O17" s="29"/>
+      <c r="O17" s="30"/>
       <c r="P17" s="57"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="58"/>
+      <c r="S17" s="11"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="59"/>
       <c r="AA17" s="59"/>
       <c r="AB17" s="59"/>
       <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="61"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="61"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="50"/>
       <c r="C18" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="53"/>
@@ -8285,25 +8096,24 @@
       <c r="L18" s="52"/>
       <c r="M18" s="57"/>
       <c r="N18" s="56"/>
-      <c r="O18" s="29"/>
+      <c r="O18" s="30"/>
       <c r="P18" s="57"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="58"/>
+      <c r="S18" s="11"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="59"/>
       <c r="AA18" s="59"/>
       <c r="AB18" s="59"/>
       <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="61"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="61"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="50"/>
       <c r="C19" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="53"/>
@@ -8314,25 +8124,24 @@
       <c r="L19" s="52"/>
       <c r="M19" s="57"/>
       <c r="N19" s="56"/>
-      <c r="O19" s="29"/>
+      <c r="O19" s="30"/>
       <c r="P19" s="57"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="58"/>
+      <c r="S19" s="11"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="59"/>
       <c r="AA19" s="59"/>
       <c r="AB19" s="59"/>
       <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="61"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="50"/>
       <c r="C20" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="53"/>
@@ -8343,25 +8152,24 @@
       <c r="L20" s="52"/>
       <c r="M20" s="57"/>
       <c r="N20" s="56"/>
-      <c r="O20" s="29"/>
+      <c r="O20" s="30"/>
       <c r="P20" s="57"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="58"/>
+      <c r="S20" s="11"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="59"/>
       <c r="AA20" s="59"/>
       <c r="AB20" s="59"/>
       <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="61"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="61"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="50"/>
       <c r="C21" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="53"/>
@@ -8372,25 +8180,24 @@
       <c r="L21" s="52"/>
       <c r="M21" s="57"/>
       <c r="N21" s="56"/>
-      <c r="O21" s="29"/>
+      <c r="O21" s="30"/>
       <c r="P21" s="57"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="58"/>
+      <c r="S21" s="11"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="59"/>
       <c r="AA21" s="59"/>
       <c r="AB21" s="59"/>
       <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="61"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="61"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="50"/>
       <c r="C22" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="53"/>
@@ -8401,25 +8208,24 @@
       <c r="L22" s="52"/>
       <c r="M22" s="57"/>
       <c r="N22" s="56"/>
-      <c r="O22" s="29"/>
+      <c r="O22" s="30"/>
       <c r="P22" s="57"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="58"/>
+      <c r="S22" s="11"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="59"/>
       <c r="AA22" s="59"/>
       <c r="AB22" s="59"/>
       <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="61"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="61"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="50"/>
       <c r="C23" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="53"/>
@@ -8430,25 +8236,24 @@
       <c r="L23" s="52"/>
       <c r="M23" s="57"/>
       <c r="N23" s="56"/>
-      <c r="O23" s="29"/>
+      <c r="O23" s="30"/>
       <c r="P23" s="57"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="58"/>
+      <c r="S23" s="11"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="59"/>
       <c r="AA23" s="59"/>
       <c r="AB23" s="59"/>
       <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="60"/>
-      <c r="AF23" s="61"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="61"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="50"/>
       <c r="C24" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="53"/>
@@ -8459,25 +8264,24 @@
       <c r="L24" s="52"/>
       <c r="M24" s="57"/>
       <c r="N24" s="56"/>
-      <c r="O24" s="29"/>
+      <c r="O24" s="30"/>
       <c r="P24" s="57"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="58"/>
+      <c r="S24" s="11"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="59"/>
       <c r="AA24" s="59"/>
       <c r="AB24" s="59"/>
       <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="60"/>
-      <c r="AF24" s="61"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="61"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="50"/>
       <c r="C25" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="53"/>
@@ -8488,25 +8292,24 @@
       <c r="L25" s="52"/>
       <c r="M25" s="57"/>
       <c r="N25" s="56"/>
-      <c r="O25" s="29"/>
+      <c r="O25" s="30"/>
       <c r="P25" s="57"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="58"/>
+      <c r="S25" s="11"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="59"/>
       <c r="AA25" s="59"/>
       <c r="AB25" s="59"/>
       <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="61"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="61"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="50"/>
       <c r="C26" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="53"/>
@@ -8517,25 +8320,24 @@
       <c r="L26" s="52"/>
       <c r="M26" s="57"/>
       <c r="N26" s="56"/>
-      <c r="O26" s="29"/>
+      <c r="O26" s="30"/>
       <c r="P26" s="57"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="58"/>
+      <c r="S26" s="11"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="59"/>
       <c r="AA26" s="59"/>
       <c r="AB26" s="59"/>
       <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="61"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="61"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="50"/>
       <c r="C27" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="53"/>
@@ -8546,25 +8348,24 @@
       <c r="L27" s="52"/>
       <c r="M27" s="57"/>
       <c r="N27" s="56"/>
-      <c r="O27" s="29"/>
+      <c r="O27" s="30"/>
       <c r="P27" s="57"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="58"/>
+      <c r="S27" s="11"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="59"/>
       <c r="AA27" s="59"/>
       <c r="AB27" s="59"/>
       <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="60"/>
-      <c r="AF27" s="61"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="61"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="50"/>
       <c r="C28" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="53"/>
@@ -8575,25 +8376,24 @@
       <c r="L28" s="52"/>
       <c r="M28" s="57"/>
       <c r="N28" s="56"/>
-      <c r="O28" s="29"/>
+      <c r="O28" s="30"/>
       <c r="P28" s="57"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="58"/>
+      <c r="S28" s="11"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="59"/>
       <c r="AA28" s="59"/>
       <c r="AB28" s="59"/>
       <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="60"/>
-      <c r="AF28" s="61"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="61"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="50"/>
       <c r="C29" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="53"/>
@@ -8601,28 +8401,27 @@
       <c r="I29" s="55"/>
       <c r="J29" s="50"/>
       <c r="K29" s="56"/>
-      <c r="L29" s="29"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="57"/>
       <c r="N29" s="56"/>
-      <c r="O29" s="29"/>
+      <c r="O29" s="30"/>
       <c r="P29" s="57"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="58"/>
+      <c r="S29" s="11"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="59"/>
       <c r="AA29" s="59"/>
       <c r="AB29" s="59"/>
       <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="61"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="61"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="50"/>
       <c r="C30" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="53"/>
@@ -8630,21 +8429,20 @@
       <c r="I30" s="55"/>
       <c r="J30" s="50"/>
       <c r="K30" s="56"/>
-      <c r="L30" s="29"/>
+      <c r="L30" s="30"/>
       <c r="M30" s="57"/>
       <c r="N30" s="56"/>
-      <c r="O30" s="29"/>
+      <c r="O30" s="30"/>
       <c r="P30" s="57"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="Y30" s="63"/>
-      <c r="Z30" s="58"/>
+      <c r="S30" s="11"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="59"/>
       <c r="AA30" s="59"/>
       <c r="AB30" s="59"/>
       <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="60"/>
-      <c r="AF30" s="61"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8656,12 +8454,12 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:Y4"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Z6:AE30" type="list">
+  <dataValidations count="17">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6:AD30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8681,7 +8479,7 @@
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AF6:AH6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AE6:AG6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
@@ -8697,7 +8495,7 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30 T6 V7:W30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7:V30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -8705,7 +8503,7 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6 S6 U6:Y6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:X6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
@@ -8717,9 +8515,17 @@
       <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U30 Y7:Y30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:S30 X7:X30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T5:V5" type="list">
+      <formula1>"none,xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_wheel,xafs_garot,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_ref,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:S5" type="list">
+      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8739,46 +8545,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
   </cols>
   <sheetData>
-    <row r="1" s="65" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>62</v>
+    <row r="1" s="63" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="29" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="65"/>
+      <c r="A2" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="63"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="n">
-        <f aca="false">MAX(A6:A41)</f>
-        <v>16</v>
-      </c>
-      <c r="B3" s="65"/>
+      <c r="A3" s="29" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3" s="63"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="63"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>64</v>
+      <c r="A5" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8786,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8794,7 +8599,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8802,7 +8607,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8810,7 +8615,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8818,7 +8623,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8826,7 +8631,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8834,7 +8639,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8842,7 +8647,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8850,7 +8655,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8858,7 +8663,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8866,7 +8671,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8874,15 +8679,15 @@
         <v>12</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B18" s="66" t="s">
-        <v>77</v>
+      <c r="B18" s="64" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8890,7 +8695,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8898,7 +8703,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8906,7 +8711,15 @@
         <v>16</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/startup/xlsx/grid.xlsx
+++ b/startup/xlsx/grid.xlsx
@@ -1628,13 +1628,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>606600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>643680</xdr:colOff>
+      <xdr:colOff>643320</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1643,8 +1643,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3201120" y="7013160"/>
-          <a:ext cx="6933240" cy="1848240"/>
+          <a:off x="3201840" y="7013160"/>
+          <a:ext cx="6935040" cy="1847880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1887,9 +1887,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>714600</xdr:colOff>
+      <xdr:colOff>714240</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1898,8 +1898,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3306240" y="7160760"/>
-          <a:ext cx="6933240" cy="1848240"/>
+          <a:off x="3306960" y="7160760"/>
+          <a:ext cx="6933240" cy="1847880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2142,9 +2142,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>714600</xdr:colOff>
+      <xdr:colOff>714240</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2153,8 +2153,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3306240" y="7020000"/>
-          <a:ext cx="6933240" cy="1848240"/>
+          <a:off x="3306960" y="7020000"/>
+          <a:ext cx="6933240" cy="1847880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2397,9 +2397,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>748800</xdr:colOff>
+      <xdr:colOff>748440</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2408,8 +2408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3306240" y="7020000"/>
-          <a:ext cx="6933240" cy="1848240"/>
+          <a:off x="3306960" y="7020000"/>
+          <a:ext cx="6935040" cy="1847880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2652,9 +2652,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>714600</xdr:colOff>
+      <xdr:colOff>714240</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2663,8 +2663,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3306240" y="7020000"/>
-          <a:ext cx="6933240" cy="1848240"/>
+          <a:off x="3306960" y="7020000"/>
+          <a:ext cx="6933240" cy="1847880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2911,12 +2911,12 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="12.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="12.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
@@ -3084,7 +3084,7 @@
       <c r="AF4" s="17"/>
       <c r="AG4" s="17"/>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
         <v>15</v>
@@ -3925,7 +3925,7 @@
     <mergeCell ref="Y4:AD4"/>
     <mergeCell ref="AE4:AG4"/>
   </mergeCells>
-  <dataValidations count="16">
+  <dataValidations count="17">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6:AD30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -3982,12 +3982,16 @@
       <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T5:V5" type="list">
-      <formula1>"none,xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_wheel,xafs_garot,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_ref,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5" type="list">
+      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsy,xafs_refx,xafs_refy,xafs_spare,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:S5" type="list">
-      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S5" type="list">
+      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsy,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T5:V5" type="list">
+      <formula1>"none,xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_wheel,xafs_garot,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsy,xafs_ref,xafs_refx,xafs_refy,xafs_spare,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -4018,7 +4022,7 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -5063,7 +5067,7 @@
     <mergeCell ref="Y4:AD4"/>
     <mergeCell ref="AE4:AG4"/>
   </mergeCells>
-  <dataValidations count="16">
+  <dataValidations count="17">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6:AD30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -5120,12 +5124,16 @@
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T5:V5" type="list">
-      <formula1>"none,xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_wheel,xafs_garot,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_ref,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5" type="list">
+      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsy,xafs_refx,xafs_refy,xafs_spare,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:S5" type="list">
-      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S5" type="list">
+      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsy,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T5:V5" type="list">
+      <formula1>"none,xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_wheel,xafs_garot,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsy,xafs_ref,xafs_refx,xafs_refy,xafs_spare,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -5156,7 +5164,7 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -6192,7 +6200,7 @@
     <mergeCell ref="Y4:AD4"/>
     <mergeCell ref="AE4:AG4"/>
   </mergeCells>
-  <dataValidations count="17">
+  <dataValidations count="18">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6:AD30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -6229,7 +6237,7 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7:V30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:S30 X7:X30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -6249,16 +6257,20 @@
       <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:S30 X7:X30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7:V30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T5:V5" type="list">
-      <formula1>"none,xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_wheel,xafs_garot,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_ref,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5" type="list">
+      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsy,xafs_refx,xafs_refy,xafs_spare,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:S5" type="list">
-      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S5" type="list">
+      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsy,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T5:V5" type="list">
+      <formula1>"none,xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_wheel,xafs_garot,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsy,xafs_ref,xafs_refx,xafs_refy,xafs_spare,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -6289,12 +6301,12 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="12.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="12.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
@@ -7325,7 +7337,7 @@
     <mergeCell ref="Y4:AD4"/>
     <mergeCell ref="AE4:AG4"/>
   </mergeCells>
-  <dataValidations count="17">
+  <dataValidations count="18">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6:AD30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -7362,7 +7374,7 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7:V30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:S30 X7:X30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -7382,16 +7394,20 @@
       <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:S30 X7:X30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7:V30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T5:V5" type="list">
-      <formula1>"none,xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_wheel,xafs_garot,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_ref,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5" type="list">
+      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsy,xafs_refx,xafs_refy,xafs_spare,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:S5" type="list">
-      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S5" type="list">
+      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsy,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T5:V5" type="list">
+      <formula1>"none,xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_wheel,xafs_garot,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsy,xafs_ref,xafs_refx,xafs_refy,xafs_spare,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -7419,10 +7435,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="R5" activeCellId="0" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -8458,7 +8474,7 @@
     <mergeCell ref="Y4:AD4"/>
     <mergeCell ref="AE4:AG4"/>
   </mergeCells>
-  <dataValidations count="17">
+  <dataValidations count="18">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6:AD30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -8495,7 +8511,7 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7:V30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:S30 X7:X30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
@@ -8515,16 +8531,20 @@
       <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:S30 X7:X30" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7:V30" type="none">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T5:V5" type="list">
-      <formula1>"none,xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_wheel,xafs_garot,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_ref,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5" type="list">
+      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsy,xafs_refx,xafs_refy,xafs_spare,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:S5" type="list">
-      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsz,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S5" type="list">
+      <formula1>"xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsy,xafs_refx,xafs_refy,xafs_spare,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T5:V5" type="list">
+      <formula1>"none,xafs_x,xafs_y,xafs_pitch,xafs_roll,xafs_wheel,xafs_garot,xafs_detx,xafs_dety,xafs_detz,xafs_bsx,xafs_bsy,xafs_ref,xafs_refx,xafs_refy,xafs_spare,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -8551,7 +8571,7 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
